--- a/file.xlsx
+++ b/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Data-Squad/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>asldfkj</t>
+  </si>
+  <si>
+    <t>saldjf</t>
+  </si>
+  <si>
+    <t>asdlkfj</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +350,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D8:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>asldfkj</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>asdlkfj</t>
+  </si>
+  <si>
+    <t>Hello Canada</t>
   </si>
 </sst>
 </file>
@@ -350,25 +353,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:D13"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>2</v>
       </c>

--- a/file.xlsx
+++ b/file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>asldfkj</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>asdlkfj</t>
-  </si>
-  <si>
-    <t>Hello Canada</t>
   </si>
 </sst>
 </file>
@@ -353,30 +350,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="D8:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>2</v>
       </c>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Data-Squad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Documents\GitHub\Data-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16418" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>asldfkj</t>
   </si>
@@ -39,12 +39,18 @@
   </si>
   <si>
     <t>Hello Canada</t>
+  </si>
+  <si>
+    <t>Kat is playing with your data!!!</t>
+  </si>
+  <si>
+    <t>Aren't friends the best?!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -85,6 +91,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -356,27 +365,35 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D13" t="s">
         <v>2</v>
       </c>
